--- a/target/classes/excel_template/userInfo.xlsx
+++ b/target/classes/excel_template/userInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl\Desktop\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>用户详细数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,52 +59,12 @@
   <si>
     <t>司龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大一</t>
-  </si>
-  <si>
-    <t>13800000001</t>
-  </si>
-  <si>
-    <t>1981-03-02</t>
-  </si>
-  <si>
-    <t>2001-01-01</t>
-  </si>
-  <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>北京市西城区宣武大街1号院</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-  <si>
-    <t>13800000005</t>
-  </si>
-  <si>
-    <t>1985-03-02</t>
-  </si>
-  <si>
-    <t>2005-03-05</t>
-  </si>
-  <si>
-    <t>河北省</t>
-  </si>
-  <si>
-    <t>北京市西城区宣武大街5号院</t>
-  </si>
-  <si>
-    <t>唐山市</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,9 +552,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="11.625" collapsed="true"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -609,9 +569,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
     </row>
@@ -619,9 +577,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
     </row>
@@ -629,9 +585,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
     </row>
@@ -639,9 +593,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>15000.0</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
     </row>
@@ -649,9 +601,7 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -661,23 +611,17 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
